--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\jay\code\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deslauj/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E35F95-B337-4CD8-9B19-A4590D33A16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34514482-DEC0-FD4B-930A-9CCA2BA23973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="14020" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microservice" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="575">
   <si>
     <t>Concept</t>
   </si>
@@ -1847,6 +1847,9 @@
   <si>
     <t>microserviceA_ID</t>
   </si>
+  <si>
+    <t>asd</t>
+  </si>
 </sst>
 </file>
 
@@ -3234,60 +3237,20 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3312,6 +3275,46 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4199,32 +4202,32 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="2" customWidth="1"/>
     <col min="9" max="1024" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="1025" max="16384" width="9.140625" hidden="1"/>
+    <col min="1025" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="239" t="s">
+    <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="227" t="s">
         <v>477</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="240"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="228"/>
     </row>
-    <row r="2" spans="1:1024" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1024" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -4250,8 +4253,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="241" t="s">
+    <row r="3" spans="1:1024" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="231" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="27"/>
@@ -4262,8 +4265,8 @@
       <c r="G3" s="179"/>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="242"/>
+    <row r="4" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="232"/>
       <c r="B4" s="47" t="s">
         <v>8</v>
       </c>
@@ -4282,8 +4285,8 @@
       </c>
       <c r="H4" s="50"/>
     </row>
-    <row r="5" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="242"/>
+    <row r="5" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="232"/>
       <c r="B5" s="47" t="s">
         <v>13</v>
       </c>
@@ -4302,8 +4305,8 @@
       </c>
       <c r="H5" s="50"/>
     </row>
-    <row r="6" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="242"/>
+    <row r="6" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="232"/>
       <c r="B6" s="47" t="s">
         <v>16</v>
       </c>
@@ -4322,8 +4325,8 @@
       </c>
       <c r="H6" s="50"/>
     </row>
-    <row r="7" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="242"/>
+    <row r="7" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="232"/>
       <c r="B7" s="47" t="s">
         <v>19</v>
       </c>
@@ -4342,8 +4345,8 @@
       </c>
       <c r="H7" s="50"/>
     </row>
-    <row r="8" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="242"/>
+    <row r="8" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="232"/>
       <c r="B8" s="47" t="s">
         <v>22</v>
       </c>
@@ -4362,8 +4365,8 @@
       </c>
       <c r="H8" s="50"/>
     </row>
-    <row r="9" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="242"/>
+    <row r="9" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="232"/>
       <c r="B9" s="47" t="s">
         <v>25</v>
       </c>
@@ -4382,8 +4385,8 @@
       </c>
       <c r="H9" s="50"/>
     </row>
-    <row r="10" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="242"/>
+    <row r="10" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="232"/>
       <c r="B10" s="47" t="s">
         <v>26</v>
       </c>
@@ -4402,8 +4405,8 @@
       </c>
       <c r="H10" s="50"/>
     </row>
-    <row r="11" spans="1:1024" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="243"/>
+    <row r="11" spans="1:1024" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="233"/>
       <c r="B11" s="51" t="s">
         <v>30</v>
       </c>
@@ -4422,8 +4425,8 @@
       </c>
       <c r="H11" s="54"/>
     </row>
-    <row r="12" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="244" t="s">
+    <row r="12" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="234" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="213"/>
@@ -4434,8 +4437,8 @@
       <c r="G12" s="215"/>
       <c r="H12" s="216"/>
     </row>
-    <row r="13" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="245"/>
+    <row r="13" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="235"/>
       <c r="B13" s="55" t="s">
         <v>35</v>
       </c>
@@ -4454,8 +4457,8 @@
       </c>
       <c r="H13" s="58"/>
     </row>
-    <row r="14" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="245"/>
+    <row r="14" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="235"/>
       <c r="B14" s="55" t="s">
         <v>38</v>
       </c>
@@ -4474,8 +4477,8 @@
       </c>
       <c r="H14" s="58"/>
     </row>
-    <row r="15" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="245"/>
+    <row r="15" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="235"/>
       <c r="B15" s="55" t="s">
         <v>449</v>
       </c>
@@ -5510,8 +5513,8 @@
       <c r="AMI15" s="4"/>
       <c r="AMJ15" s="4"/>
     </row>
-    <row r="16" spans="1:1024" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="245"/>
+    <row r="16" spans="1:1024" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="235"/>
       <c r="B16" s="55"/>
       <c r="C16" s="56" t="s">
         <v>553</v>
@@ -6546,8 +6549,8 @@
       <c r="AMI16" s="4"/>
       <c r="AMJ16" s="4"/>
     </row>
-    <row r="17" spans="1:1024" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="245"/>
+    <row r="17" spans="1:1024" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="235"/>
       <c r="B17" s="55"/>
       <c r="C17" s="56" t="s">
         <v>555</v>
@@ -7582,8 +7585,8 @@
       <c r="AMI17" s="4"/>
       <c r="AMJ17" s="4"/>
     </row>
-    <row r="18" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="245"/>
+    <row r="18" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="235"/>
       <c r="B18" s="55"/>
       <c r="C18" s="56" t="s">
         <v>554</v>
@@ -8618,8 +8621,8 @@
       <c r="AMI18" s="4"/>
       <c r="AMJ18" s="4"/>
     </row>
-    <row r="19" spans="1:1024" s="10" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="245"/>
+    <row r="19" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="235"/>
       <c r="B19" s="55" t="s">
         <v>446</v>
       </c>
@@ -9654,8 +9657,8 @@
       <c r="AMI19" s="4"/>
       <c r="AMJ19" s="4"/>
     </row>
-    <row r="20" spans="1:1024" s="10" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="246"/>
+    <row r="20" spans="1:1024" s="10" customFormat="1" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="236"/>
       <c r="B20" s="217" t="s">
         <v>447</v>
       </c>
@@ -10690,7 +10693,7 @@
       <c r="AMI20" s="4"/>
       <c r="AMJ20" s="4"/>
     </row>
-    <row r="21" spans="1:1024" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1024" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="237" t="s">
         <v>39</v>
       </c>
@@ -10702,7 +10705,7 @@
       <c r="G21" s="186"/>
       <c r="H21" s="61"/>
     </row>
-    <row r="22" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="237"/>
       <c r="B22" s="47" t="s">
         <v>40</v>
@@ -10722,7 +10725,7 @@
       </c>
       <c r="H22" s="50"/>
     </row>
-    <row r="23" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="237"/>
       <c r="B23" s="47" t="s">
         <v>44</v>
@@ -10742,7 +10745,7 @@
       </c>
       <c r="H23" s="50"/>
     </row>
-    <row r="24" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="237"/>
       <c r="B24" s="47" t="s">
         <v>46</v>
@@ -10762,7 +10765,7 @@
       </c>
       <c r="H24" s="50"/>
     </row>
-    <row r="25" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="237"/>
       <c r="B25" s="47" t="s">
         <v>48</v>
@@ -10782,7 +10785,7 @@
       </c>
       <c r="H25" s="50"/>
     </row>
-    <row r="26" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="237"/>
       <c r="B26" s="47" t="s">
         <v>50</v>
@@ -10802,7 +10805,7 @@
       </c>
       <c r="H26" s="50"/>
     </row>
-    <row r="27" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="237"/>
       <c r="B27" s="47" t="s">
         <v>53</v>
@@ -10822,7 +10825,7 @@
       </c>
       <c r="H27" s="50"/>
     </row>
-    <row r="28" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1024" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="237"/>
       <c r="B28" s="47" t="s">
         <v>57</v>
@@ -10842,7 +10845,7 @@
       </c>
       <c r="H28" s="50"/>
     </row>
-    <row r="29" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="237"/>
       <c r="B29" s="47" t="s">
         <v>61</v>
@@ -10862,7 +10865,7 @@
       </c>
       <c r="H29" s="50"/>
     </row>
-    <row r="30" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="237"/>
       <c r="B30" s="47" t="s">
         <v>63</v>
@@ -10882,7 +10885,7 @@
       </c>
       <c r="H30" s="50"/>
     </row>
-    <row r="31" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="237"/>
       <c r="B31" s="47" t="s">
         <v>65</v>
@@ -10902,7 +10905,7 @@
       </c>
       <c r="H31" s="50"/>
     </row>
-    <row r="32" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="237"/>
       <c r="B32" s="47" t="s">
         <v>67</v>
@@ -10922,7 +10925,7 @@
       </c>
       <c r="H32" s="50"/>
     </row>
-    <row r="33" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="238"/>
       <c r="B33" s="51" t="s">
         <v>69</v>
@@ -10942,8 +10945,8 @@
       </c>
       <c r="H33" s="54"/>
     </row>
-    <row r="34" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="233" t="s">
+    <row r="34" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="239" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="62"/>
@@ -10954,8 +10957,8 @@
       <c r="G34" s="187"/>
       <c r="H34" s="64"/>
     </row>
-    <row r="35" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="234"/>
+    <row r="35" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="240"/>
       <c r="B35" s="65" t="s">
         <v>73</v>
       </c>
@@ -10974,8 +10977,8 @@
       </c>
       <c r="H35" s="68"/>
     </row>
-    <row r="36" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="234"/>
+    <row r="36" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="240"/>
       <c r="B36" s="69" t="s">
         <v>76</v>
       </c>
@@ -10994,8 +10997,8 @@
       </c>
       <c r="H36" s="72"/>
     </row>
-    <row r="37" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="234"/>
+    <row r="37" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="240"/>
       <c r="B37" s="69" t="s">
         <v>79</v>
       </c>
@@ -11014,8 +11017,8 @@
       </c>
       <c r="H37" s="72"/>
     </row>
-    <row r="38" spans="1:1024" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="235"/>
+    <row r="38" spans="1:1024" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="241"/>
       <c r="B38" s="73" t="s">
         <v>82</v>
       </c>
@@ -11034,8 +11037,8 @@
       </c>
       <c r="H38" s="76"/>
     </row>
-    <row r="39" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="236" t="s">
+    <row r="39" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="242" t="s">
         <v>85</v>
       </c>
       <c r="B39" s="59"/>
@@ -11046,7 +11049,7 @@
       <c r="G39" s="186"/>
       <c r="H39" s="61"/>
     </row>
-    <row r="40" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="237"/>
       <c r="B40" s="47" t="s">
         <v>86</v>
@@ -12082,9 +12085,9 @@
       <c r="AMI40" s="4"/>
       <c r="AMJ40" s="4"/>
     </row>
-    <row r="41" spans="1:1024" s="10" customFormat="1" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1024" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="237"/>
-      <c r="B41" s="227" t="s">
+      <c r="B41" s="229" t="s">
         <v>90</v>
       </c>
       <c r="C41" s="47" t="s">
@@ -13120,9 +13123,9 @@
       <c r="AMI41" s="4"/>
       <c r="AMJ41" s="4"/>
     </row>
-    <row r="42" spans="1:1024" s="10" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="237"/>
-      <c r="B42" s="227"/>
+      <c r="B42" s="229"/>
       <c r="C42" s="47" t="s">
         <v>94</v>
       </c>
@@ -14156,9 +14159,9 @@
       <c r="AMI42" s="4"/>
       <c r="AMJ42" s="4"/>
     </row>
-    <row r="43" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="237"/>
-      <c r="B43" s="227"/>
+      <c r="B43" s="229"/>
       <c r="C43" s="47" t="s">
         <v>98</v>
       </c>
@@ -15192,9 +15195,9 @@
       <c r="AMI43" s="4"/>
       <c r="AMJ43" s="4"/>
     </row>
-    <row r="44" spans="1:1024" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1024" s="10" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A44" s="237"/>
-      <c r="B44" s="227"/>
+      <c r="B44" s="229"/>
       <c r="C44" s="47" t="s">
         <v>102</v>
       </c>
@@ -16228,9 +16231,9 @@
       <c r="AMI44" s="4"/>
       <c r="AMJ44" s="4"/>
     </row>
-    <row r="45" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="237"/>
-      <c r="B45" s="227"/>
+      <c r="B45" s="229"/>
       <c r="C45" s="47" t="s">
         <v>106</v>
       </c>
@@ -17264,9 +17267,9 @@
       <c r="AMI45" s="4"/>
       <c r="AMJ45" s="4"/>
     </row>
-    <row r="46" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1024" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="237"/>
-      <c r="B46" s="227"/>
+      <c r="B46" s="229"/>
       <c r="C46" s="47" t="s">
         <v>110</v>
       </c>
@@ -18300,9 +18303,9 @@
       <c r="AMI46" s="4"/>
       <c r="AMJ46" s="4"/>
     </row>
-    <row r="47" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="237"/>
-      <c r="B47" s="227"/>
+      <c r="B47" s="229"/>
       <c r="C47" s="47" t="s">
         <v>114</v>
       </c>
@@ -19336,9 +19339,9 @@
       <c r="AMI47" s="4"/>
       <c r="AMJ47" s="4"/>
     </row>
-    <row r="48" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="237"/>
-      <c r="B48" s="227"/>
+      <c r="B48" s="229"/>
       <c r="C48" s="47" t="s">
         <v>118</v>
       </c>
@@ -20372,9 +20375,9 @@
       <c r="AMI48" s="4"/>
       <c r="AMJ48" s="4"/>
     </row>
-    <row r="49" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="237"/>
-      <c r="B49" s="227"/>
+      <c r="B49" s="229"/>
       <c r="C49" s="47" t="s">
         <v>122</v>
       </c>
@@ -21408,9 +21411,9 @@
       <c r="AMI49" s="4"/>
       <c r="AMJ49" s="4"/>
     </row>
-    <row r="50" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="237"/>
-      <c r="B50" s="227"/>
+      <c r="B50" s="229"/>
       <c r="C50" s="47" t="s">
         <v>126</v>
       </c>
@@ -22444,9 +22447,9 @@
       <c r="AMI50" s="4"/>
       <c r="AMJ50" s="4"/>
     </row>
-    <row r="51" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="237"/>
-      <c r="B51" s="227"/>
+      <c r="B51" s="229"/>
       <c r="C51" s="47" t="s">
         <v>130</v>
       </c>
@@ -23480,9 +23483,9 @@
       <c r="AMI51" s="4"/>
       <c r="AMJ51" s="4"/>
     </row>
-    <row r="52" spans="1:1024" s="16" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1024" s="16" customFormat="1" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="238"/>
-      <c r="B52" s="228"/>
+      <c r="B52" s="230"/>
       <c r="C52" s="51" t="s">
         <v>134</v>
       </c>
@@ -24516,8 +24519,8 @@
       <c r="AMI52" s="15"/>
       <c r="AMJ52" s="15"/>
     </row>
-    <row r="53" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="233" t="s">
+    <row r="53" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="239" t="s">
         <v>137</v>
       </c>
       <c r="B53" s="77"/>
@@ -24528,8 +24531,8 @@
       <c r="G53" s="189"/>
       <c r="H53" s="79"/>
     </row>
-    <row r="54" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="234"/>
+    <row r="54" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="240"/>
       <c r="B54" s="80" t="s">
         <v>138</v>
       </c>
@@ -24548,9 +24551,9 @@
       </c>
       <c r="H54" s="83"/>
     </row>
-    <row r="55" spans="1:1024" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="234"/>
-      <c r="B55" s="229" t="s">
+    <row r="55" spans="1:1024" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="240"/>
+      <c r="B55" s="243" t="s">
         <v>90</v>
       </c>
       <c r="C55" s="84" t="s">
@@ -24570,9 +24573,9 @@
       </c>
       <c r="H55" s="83"/>
     </row>
-    <row r="56" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A56" s="234"/>
-      <c r="B56" s="229"/>
+    <row r="56" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
+      <c r="A56" s="240"/>
+      <c r="B56" s="243"/>
       <c r="C56" s="80" t="s">
         <v>94</v>
       </c>
@@ -24590,9 +24593,9 @@
       </c>
       <c r="H56" s="83"/>
     </row>
-    <row r="57" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="234"/>
-      <c r="B57" s="229"/>
+    <row r="57" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" s="240"/>
+      <c r="B57" s="243"/>
       <c r="C57" s="80" t="s">
         <v>98</v>
       </c>
@@ -24610,9 +24613,9 @@
       </c>
       <c r="H57" s="83"/>
     </row>
-    <row r="58" spans="1:1024" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="234"/>
-      <c r="B58" s="229"/>
+    <row r="58" spans="1:1024" ht="85" x14ac:dyDescent="0.2">
+      <c r="A58" s="240"/>
+      <c r="B58" s="243"/>
       <c r="C58" s="80" t="s">
         <v>102</v>
       </c>
@@ -24630,9 +24633,9 @@
       </c>
       <c r="H58" s="83"/>
     </row>
-    <row r="59" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="234"/>
-      <c r="B59" s="229"/>
+    <row r="59" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A59" s="240"/>
+      <c r="B59" s="243"/>
       <c r="C59" s="80" t="s">
         <v>106</v>
       </c>
@@ -24650,9 +24653,9 @@
       </c>
       <c r="H59" s="83"/>
     </row>
-    <row r="60" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="234"/>
-      <c r="B60" s="229"/>
+    <row r="60" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="240"/>
+      <c r="B60" s="243"/>
       <c r="C60" s="80" t="s">
         <v>110</v>
       </c>
@@ -24670,9 +24673,9 @@
       </c>
       <c r="H60" s="83"/>
     </row>
-    <row r="61" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="234"/>
-      <c r="B61" s="229"/>
+    <row r="61" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A61" s="240"/>
+      <c r="B61" s="243"/>
       <c r="C61" s="80" t="s">
         <v>114</v>
       </c>
@@ -24690,9 +24693,9 @@
       </c>
       <c r="H61" s="83"/>
     </row>
-    <row r="62" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="234"/>
-      <c r="B62" s="229"/>
+    <row r="62" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
+      <c r="A62" s="240"/>
+      <c r="B62" s="243"/>
       <c r="C62" s="80" t="s">
         <v>118</v>
       </c>
@@ -24710,9 +24713,9 @@
       </c>
       <c r="H62" s="83"/>
     </row>
-    <row r="63" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="234"/>
-      <c r="B63" s="229"/>
+    <row r="63" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
+      <c r="A63" s="240"/>
+      <c r="B63" s="243"/>
       <c r="C63" s="80" t="s">
         <v>122</v>
       </c>
@@ -24730,9 +24733,9 @@
       </c>
       <c r="H63" s="83"/>
     </row>
-    <row r="64" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="234"/>
-      <c r="B64" s="229"/>
+    <row r="64" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
+      <c r="A64" s="240"/>
+      <c r="B64" s="243"/>
       <c r="C64" s="80" t="s">
         <v>126</v>
       </c>
@@ -24750,9 +24753,9 @@
       </c>
       <c r="H64" s="83"/>
     </row>
-    <row r="65" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="234"/>
-      <c r="B65" s="229"/>
+    <row r="65" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A65" s="240"/>
+      <c r="B65" s="243"/>
       <c r="C65" s="80" t="s">
         <v>130</v>
       </c>
@@ -24770,9 +24773,9 @@
       </c>
       <c r="H65" s="83"/>
     </row>
-    <row r="66" spans="1:1024" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="235"/>
-      <c r="B66" s="230"/>
+    <row r="66" spans="1:1024" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="241"/>
+      <c r="B66" s="244"/>
       <c r="C66" s="85" t="s">
         <v>134</v>
       </c>
@@ -24790,8 +24793,8 @@
       </c>
       <c r="H66" s="87"/>
     </row>
-    <row r="67" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="236" t="s">
+    <row r="67" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="242" t="s">
         <v>145</v>
       </c>
       <c r="B67" s="59"/>
@@ -25818,7 +25821,7 @@
       <c r="AMI67" s="13"/>
       <c r="AMJ67" s="13"/>
     </row>
-    <row r="68" spans="1:1024" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1024" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="237"/>
       <c r="B68" s="89" t="s">
         <v>146</v>
@@ -26854,7 +26857,7 @@
       <c r="AMI68" s="13"/>
       <c r="AMJ68" s="13"/>
     </row>
-    <row r="69" spans="1:1024" s="14" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1024" s="14" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="238"/>
       <c r="B69" s="93" t="s">
         <v>150</v>
@@ -27890,8 +27893,8 @@
       <c r="AMI69" s="13"/>
       <c r="AMJ69" s="13"/>
     </row>
-    <row r="70" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="233" t="s">
+    <row r="70" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="239" t="s">
         <v>154</v>
       </c>
       <c r="B70" s="29"/>
@@ -27902,8 +27905,8 @@
       <c r="G70" s="191"/>
       <c r="H70" s="64"/>
     </row>
-    <row r="71" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="234"/>
+    <row r="71" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A71" s="240"/>
       <c r="B71" s="69" t="s">
         <v>155</v>
       </c>
@@ -27920,9 +27923,9 @@
       </c>
       <c r="H71" s="72"/>
     </row>
-    <row r="72" spans="1:1024" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="234"/>
-      <c r="B72" s="231" t="s">
+    <row r="72" spans="1:1024" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="240"/>
+      <c r="B72" s="245" t="s">
         <v>158</v>
       </c>
       <c r="C72" s="69" t="s">
@@ -27942,9 +27945,9 @@
       </c>
       <c r="H72" s="72"/>
     </row>
-    <row r="73" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="234"/>
-      <c r="B73" s="231"/>
+    <row r="73" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A73" s="240"/>
+      <c r="B73" s="245"/>
       <c r="C73" s="69" t="s">
         <v>30</v>
       </c>
@@ -27962,9 +27965,9 @@
       </c>
       <c r="H73" s="72"/>
     </row>
-    <row r="74" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="234"/>
-      <c r="B74" s="231"/>
+    <row r="74" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="240"/>
+      <c r="B74" s="245"/>
       <c r="C74" s="69" t="s">
         <v>12</v>
       </c>
@@ -27982,9 +27985,9 @@
       </c>
       <c r="H74" s="72"/>
     </row>
-    <row r="75" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="234"/>
-      <c r="B75" s="231"/>
+    <row r="75" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A75" s="240"/>
+      <c r="B75" s="245"/>
       <c r="C75" s="69" t="s">
         <v>167</v>
       </c>
@@ -28002,9 +28005,9 @@
       </c>
       <c r="H75" s="72"/>
     </row>
-    <row r="76" spans="1:1024" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="235"/>
-      <c r="B76" s="232"/>
+    <row r="76" spans="1:1024" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="241"/>
+      <c r="B76" s="246"/>
       <c r="C76" s="73" t="s">
         <v>25</v>
       </c>
@@ -28022,8 +28025,8 @@
       </c>
       <c r="H76" s="76"/>
     </row>
-    <row r="77" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="236" t="s">
+    <row r="77" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="242" t="s">
         <v>172</v>
       </c>
       <c r="B77" s="31"/>
@@ -29050,7 +29053,7 @@
       <c r="AMI77" s="13"/>
       <c r="AMJ77" s="13"/>
     </row>
-    <row r="78" spans="1:1024" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1024" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="237"/>
       <c r="B78" s="47" t="s">
         <v>173</v>
@@ -30084,9 +30087,9 @@
       <c r="AMI78" s="13"/>
       <c r="AMJ78" s="13"/>
     </row>
-    <row r="79" spans="1:1024" s="14" customFormat="1" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1024" s="14" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="237"/>
-      <c r="B79" s="227" t="s">
+      <c r="B79" s="229" t="s">
         <v>176</v>
       </c>
       <c r="C79" s="47" t="s">
@@ -31122,9 +31125,9 @@
       <c r="AMI79" s="13"/>
       <c r="AMJ79" s="13"/>
     </row>
-    <row r="80" spans="1:1024" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1024" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="237"/>
-      <c r="B80" s="227"/>
+      <c r="B80" s="229"/>
       <c r="C80" s="47" t="s">
         <v>179</v>
       </c>
@@ -32158,9 +32161,9 @@
       <c r="AMI80" s="13"/>
       <c r="AMJ80" s="13"/>
     </row>
-    <row r="81" spans="1:1024" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1024" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="237"/>
-      <c r="B81" s="227"/>
+      <c r="B81" s="229"/>
       <c r="C81" s="47" t="s">
         <v>182</v>
       </c>
@@ -33194,9 +33197,9 @@
       <c r="AMI81" s="13"/>
       <c r="AMJ81" s="13"/>
     </row>
-    <row r="82" spans="1:1024" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1024" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="237"/>
-      <c r="B82" s="227"/>
+      <c r="B82" s="229"/>
       <c r="C82" s="47" t="s">
         <v>185</v>
       </c>
@@ -34230,9 +34233,9 @@
       <c r="AMI82" s="13"/>
       <c r="AMJ82" s="13"/>
     </row>
-    <row r="83" spans="1:1024" s="14" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1024" s="14" customFormat="1" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="238"/>
-      <c r="B83" s="228"/>
+      <c r="B83" s="230"/>
       <c r="C83" s="51" t="s">
         <v>25</v>
       </c>
@@ -35266,81 +35269,88 @@
       <c r="AMI83" s="13"/>
       <c r="AMJ83" s="13"/>
     </row>
-    <row r="84" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1024" hidden="1" x14ac:dyDescent="0.2">
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1024" hidden="1" x14ac:dyDescent="0.2">
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1024" hidden="1" x14ac:dyDescent="0.2">
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1024" hidden="1" x14ac:dyDescent="0.2">
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1024" hidden="1" x14ac:dyDescent="0.2">
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1024" hidden="1" x14ac:dyDescent="0.2">
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1024" hidden="1" x14ac:dyDescent="0.2">
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1024" hidden="1" x14ac:dyDescent="0.2">
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1024" hidden="1" x14ac:dyDescent="0.2">
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1024" hidden="1" x14ac:dyDescent="0.2">
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1024" hidden="1" x14ac:dyDescent="0.2">
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1024" hidden="1" x14ac:dyDescent="0.2">
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1024" hidden="1" x14ac:dyDescent="0.2">
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H107" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" insertRows="0" deleteRows="0"/>
   <mergeCells count="14">
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B55:B66"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="A53:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A77:A83"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B41:B52"/>
     <mergeCell ref="A3:A11"/>
@@ -35348,13 +35358,6 @@
     <mergeCell ref="A21:A33"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="A39:A52"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B55:B66"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="A53:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="A77:A83"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -35379,33 +35382,33 @@
       <selection pane="bottomRight" activeCell="B14" sqref="B14:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="1023" width="8.42578125" style="1" hidden="1"/>
-    <col min="1024" max="1024" width="9.140625" style="1" hidden="1"/>
-    <col min="16384" max="16384" width="3.42578125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="1" customWidth="1"/>
+    <col min="9" max="1023" width="8.5" style="1" hidden="1"/>
+    <col min="1024" max="1024" width="9.1640625" style="1" hidden="1"/>
+    <col min="16384" max="16384" width="3.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="239" t="s">
+    <row r="1" spans="1:8" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="227" t="s">
         <v>478</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="240"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="228"/>
     </row>
-    <row r="2" spans="1:8" s="35" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -35431,8 +35434,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="241" t="s">
+    <row r="3" spans="1:8" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="231" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="27"/>
@@ -35443,8 +35446,8 @@
       <c r="G3" s="179"/>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="242"/>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="232"/>
       <c r="B4" s="47" t="s">
         <v>8</v>
       </c>
@@ -35463,8 +35466,8 @@
       </c>
       <c r="H4" s="50"/>
     </row>
-    <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="242"/>
+    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="232"/>
       <c r="B5" s="47" t="s">
         <v>13</v>
       </c>
@@ -35483,8 +35486,8 @@
       </c>
       <c r="H5" s="50"/>
     </row>
-    <row r="6" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="242"/>
+    <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="232"/>
       <c r="B6" s="47" t="s">
         <v>25</v>
       </c>
@@ -35503,8 +35506,8 @@
       </c>
       <c r="H6" s="50"/>
     </row>
-    <row r="7" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="242"/>
+    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="232"/>
       <c r="B7" s="47" t="s">
         <v>26</v>
       </c>
@@ -35523,8 +35526,8 @@
       </c>
       <c r="H7" s="50"/>
     </row>
-    <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="242"/>
+    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="232"/>
       <c r="B8" s="47" t="s">
         <v>30</v>
       </c>
@@ -35543,8 +35546,8 @@
       </c>
       <c r="H8" s="50"/>
     </row>
-    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="242"/>
+    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="232"/>
       <c r="B9" s="47" t="s">
         <v>16</v>
       </c>
@@ -35563,8 +35566,8 @@
       </c>
       <c r="H9" s="50"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="242"/>
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="232"/>
       <c r="B10" s="47" t="s">
         <v>19</v>
       </c>
@@ -35583,8 +35586,8 @@
       </c>
       <c r="H10" s="50"/>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="243"/>
+    <row r="11" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="233"/>
       <c r="B11" s="51" t="s">
         <v>22</v>
       </c>
@@ -35603,7 +35606,7 @@
       </c>
       <c r="H11" s="54"/>
     </row>
-    <row r="12" spans="1:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="247" t="s">
         <v>203</v>
       </c>
@@ -35615,7 +35618,7 @@
       <c r="G12" s="182"/>
       <c r="H12" s="102"/>
     </row>
-    <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="248"/>
       <c r="B13" s="103" t="s">
         <v>204</v>
@@ -35635,7 +35638,7 @@
       </c>
       <c r="H13" s="72"/>
     </row>
-    <row r="14" spans="1:8" ht="103.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="248"/>
       <c r="B14" s="103" t="s">
         <v>440</v>
@@ -35680,32 +35683,32 @@
       <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="5" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="202" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="202" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="5" customWidth="1"/>
     <col min="9" max="1024" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="1025" max="16384" width="9.140625" hidden="1"/>
+    <col min="1025" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="239" t="s">
+    <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="227" t="s">
         <v>479</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="240"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="228"/>
     </row>
-    <row r="2" spans="1:1024" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1024" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -35731,8 +35734,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="241" t="s">
+    <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="231" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="37"/>
@@ -35781,8 +35784,8 @@
       <c r="AS3" s="7"/>
       <c r="AMJ3" s="5"/>
     </row>
-    <row r="4" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="242"/>
+    <row r="4" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="232"/>
       <c r="B4" s="105" t="s">
         <v>206</v>
       </c>
@@ -35799,8 +35802,8 @@
       </c>
       <c r="H4" s="107"/>
     </row>
-    <row r="5" spans="1:1024" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="242"/>
+    <row r="5" spans="1:1024" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="232"/>
       <c r="B5" s="105" t="s">
         <v>209</v>
       </c>
@@ -35815,8 +35818,8 @@
       <c r="G5" s="194"/>
       <c r="H5" s="107"/>
     </row>
-    <row r="6" spans="1:1024" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="242"/>
+    <row r="6" spans="1:1024" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="232"/>
       <c r="B6" s="105" t="s">
         <v>212</v>
       </c>
@@ -35831,8 +35834,8 @@
       <c r="G6" s="194"/>
       <c r="H6" s="107"/>
     </row>
-    <row r="7" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="242"/>
+    <row r="7" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="232"/>
       <c r="B7" s="105" t="s">
         <v>213</v>
       </c>
@@ -35847,8 +35850,8 @@
       <c r="G7" s="194"/>
       <c r="H7" s="107"/>
     </row>
-    <row r="8" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="242"/>
+    <row r="8" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="232"/>
       <c r="B8" s="105" t="s">
         <v>214</v>
       </c>
@@ -35863,8 +35866,8 @@
       <c r="G8" s="194"/>
       <c r="H8" s="107"/>
     </row>
-    <row r="9" spans="1:1024" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="242"/>
+    <row r="9" spans="1:1024" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="232"/>
       <c r="B9" s="105" t="s">
         <v>216</v>
       </c>
@@ -35881,8 +35884,8 @@
       </c>
       <c r="H9" s="107"/>
     </row>
-    <row r="10" spans="1:1024" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="242"/>
+    <row r="10" spans="1:1024" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="232"/>
       <c r="B10" s="105" t="s">
         <v>218</v>
       </c>
@@ -35910,8 +35913,8 @@
       <c r="T10" s="8"/>
       <c r="AMJ10" s="5"/>
     </row>
-    <row r="11" spans="1:1024" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="242"/>
+    <row r="11" spans="1:1024" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="232"/>
       <c r="B11" s="105" t="s">
         <v>3</v>
       </c>
@@ -35926,8 +35929,8 @@
       <c r="G11" s="194"/>
       <c r="H11" s="107"/>
     </row>
-    <row r="12" spans="1:1024" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="242"/>
+    <row r="12" spans="1:1024" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="232"/>
       <c r="B12" s="105" t="s">
         <v>222</v>
       </c>
@@ -35944,8 +35947,8 @@
       </c>
       <c r="H12" s="107"/>
     </row>
-    <row r="13" spans="1:1024" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="242"/>
+    <row r="13" spans="1:1024" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="232"/>
       <c r="B13" s="105" t="s">
         <v>224</v>
       </c>
@@ -35962,8 +35965,8 @@
       </c>
       <c r="H13" s="107"/>
     </row>
-    <row r="14" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="242"/>
+    <row r="14" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="232"/>
       <c r="B14" s="105" t="s">
         <v>451</v>
       </c>
@@ -35980,8 +35983,8 @@
       </c>
       <c r="H14" s="107"/>
     </row>
-    <row r="15" spans="1:1024" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="243"/>
+    <row r="15" spans="1:1024" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="233"/>
       <c r="B15" s="108" t="s">
         <v>228</v>
       </c>
@@ -35996,8 +35999,8 @@
       <c r="G15" s="195"/>
       <c r="H15" s="110"/>
     </row>
-    <row r="16" spans="1:1024" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="233" t="s">
+    <row r="16" spans="1:1024" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A16" s="239" t="s">
         <v>154</v>
       </c>
       <c r="B16" s="111"/>
@@ -36009,8 +36012,8 @@
       <c r="H16" s="112"/>
       <c r="AMJ16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="234"/>
+    <row r="17" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="240"/>
       <c r="B17" s="113" t="s">
         <v>231</v>
       </c>
@@ -36025,8 +36028,8 @@
       <c r="G17" s="197"/>
       <c r="H17" s="115"/>
     </row>
-    <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="234"/>
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="240"/>
       <c r="B18" s="113"/>
       <c r="C18" s="114" t="s">
         <v>1</v>
@@ -36041,8 +36044,8 @@
       <c r="G18" s="197"/>
       <c r="H18" s="115"/>
     </row>
-    <row r="19" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="234"/>
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="240"/>
       <c r="B19" s="113"/>
       <c r="C19" s="114" t="s">
         <v>209</v>
@@ -36057,8 +36060,8 @@
       <c r="G19" s="197"/>
       <c r="H19" s="115"/>
     </row>
-    <row r="20" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="234"/>
+    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="240"/>
       <c r="B20" s="113"/>
       <c r="C20" s="114" t="s">
         <v>510</v>
@@ -36073,8 +36076,8 @@
       <c r="G20" s="197"/>
       <c r="H20" s="115"/>
     </row>
-    <row r="21" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="234"/>
+    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="240"/>
       <c r="B21" s="113"/>
       <c r="C21" s="114" t="s">
         <v>511</v>
@@ -36089,8 +36092,8 @@
       <c r="G21" s="197"/>
       <c r="H21" s="115"/>
     </row>
-    <row r="22" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="234"/>
+    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="240"/>
       <c r="B22" s="113"/>
       <c r="C22" s="114" t="s">
         <v>512</v>
@@ -36105,8 +36108,8 @@
       <c r="G22" s="197"/>
       <c r="H22" s="115"/>
     </row>
-    <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="234"/>
+    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="240"/>
       <c r="B23" s="113"/>
       <c r="C23" s="114" t="s">
         <v>513</v>
@@ -36121,8 +36124,8 @@
       <c r="G23" s="197"/>
       <c r="H23" s="115"/>
     </row>
-    <row r="24" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="234"/>
+    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="240"/>
       <c r="B24" s="113"/>
       <c r="C24" s="114" t="s">
         <v>514</v>
@@ -36137,8 +36140,8 @@
       <c r="G24" s="197"/>
       <c r="H24" s="115"/>
     </row>
-    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="234"/>
+    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="240"/>
       <c r="B25" s="113"/>
       <c r="C25" s="114" t="s">
         <v>515</v>
@@ -36153,8 +36156,8 @@
       <c r="G25" s="197"/>
       <c r="H25" s="115"/>
     </row>
-    <row r="26" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="234"/>
+    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="240"/>
       <c r="B26" s="113"/>
       <c r="C26" s="114" t="s">
         <v>516</v>
@@ -36169,8 +36172,8 @@
       <c r="G26" s="197"/>
       <c r="H26" s="115"/>
     </row>
-    <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="234"/>
+    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="240"/>
       <c r="B27" s="113"/>
       <c r="C27" s="114" t="s">
         <v>517</v>
@@ -36185,8 +36188,8 @@
       <c r="G27" s="197"/>
       <c r="H27" s="115"/>
     </row>
-    <row r="28" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="234"/>
+    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="240"/>
       <c r="B28" s="113"/>
       <c r="C28" s="114" t="s">
         <v>518</v>
@@ -36201,8 +36204,8 @@
       <c r="G28" s="197"/>
       <c r="H28" s="115"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="234"/>
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="240"/>
       <c r="B29" s="113" t="s">
         <v>233</v>
       </c>
@@ -36217,8 +36220,8 @@
       <c r="G29" s="197"/>
       <c r="H29" s="115"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="234"/>
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="240"/>
       <c r="B30" s="222"/>
       <c r="C30" s="114" t="s">
         <v>1</v>
@@ -36233,8 +36236,8 @@
       <c r="G30" s="224"/>
       <c r="H30" s="225"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="234"/>
+    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="240"/>
       <c r="B31" s="222"/>
       <c r="C31" s="114" t="s">
         <v>209</v>
@@ -36249,8 +36252,8 @@
       <c r="G31" s="224"/>
       <c r="H31" s="225"/>
     </row>
-    <row r="32" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="234"/>
+    <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="240"/>
       <c r="B32" s="222"/>
       <c r="C32" s="114" t="s">
         <v>510</v>
@@ -36265,8 +36268,8 @@
       <c r="G32" s="224"/>
       <c r="H32" s="225"/>
     </row>
-    <row r="33" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="234"/>
+    <row r="33" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="240"/>
       <c r="B33" s="222"/>
       <c r="C33" s="114" t="s">
         <v>511</v>
@@ -36281,8 +36284,8 @@
       <c r="G33" s="224"/>
       <c r="H33" s="225"/>
     </row>
-    <row r="34" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="234"/>
+    <row r="34" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="240"/>
       <c r="B34" s="222"/>
       <c r="C34" s="114" t="s">
         <v>512</v>
@@ -36297,8 +36300,8 @@
       <c r="G34" s="224"/>
       <c r="H34" s="225"/>
     </row>
-    <row r="35" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="234"/>
+    <row r="35" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="240"/>
       <c r="B35" s="222"/>
       <c r="C35" s="114" t="s">
         <v>513</v>
@@ -36313,8 +36316,8 @@
       <c r="G35" s="224"/>
       <c r="H35" s="225"/>
     </row>
-    <row r="36" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="234"/>
+    <row r="36" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="240"/>
       <c r="B36" s="222"/>
       <c r="C36" s="114" t="s">
         <v>514</v>
@@ -36329,8 +36332,8 @@
       <c r="G36" s="224"/>
       <c r="H36" s="225"/>
     </row>
-    <row r="37" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="234"/>
+    <row r="37" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="240"/>
       <c r="B37" s="222"/>
       <c r="C37" s="114" t="s">
         <v>515</v>
@@ -36345,8 +36348,8 @@
       <c r="G37" s="224"/>
       <c r="H37" s="225"/>
     </row>
-    <row r="38" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="234"/>
+    <row r="38" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="240"/>
       <c r="B38" s="222"/>
       <c r="C38" s="114" t="s">
         <v>516</v>
@@ -36361,8 +36364,8 @@
       <c r="G38" s="224"/>
       <c r="H38" s="225"/>
     </row>
-    <row r="39" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="234"/>
+    <row r="39" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="240"/>
       <c r="B39" s="222"/>
       <c r="C39" s="114" t="s">
         <v>517</v>
@@ -36377,8 +36380,8 @@
       <c r="G39" s="224"/>
       <c r="H39" s="225"/>
     </row>
-    <row r="40" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="234"/>
+    <row r="40" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="240"/>
       <c r="B40" s="222"/>
       <c r="C40" s="114" t="s">
         <v>518</v>
@@ -36393,8 +36396,8 @@
       <c r="G40" s="224"/>
       <c r="H40" s="225"/>
     </row>
-    <row r="41" spans="1:1024" ht="41.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="235"/>
+    <row r="41" spans="1:1024" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="241"/>
       <c r="B41" s="116" t="s">
         <v>235</v>
       </c>
@@ -36411,8 +36414,8 @@
       </c>
       <c r="H41" s="118"/>
     </row>
-    <row r="42" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="236" t="s">
+    <row r="42" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="242" t="s">
         <v>236</v>
       </c>
       <c r="B42" s="119"/>
@@ -36461,7 +36464,7 @@
       <c r="AS42" s="7"/>
       <c r="AMJ42" s="5"/>
     </row>
-    <row r="43" spans="1:1024" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1024" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="238"/>
       <c r="B43" s="108" t="s">
         <v>237</v>
@@ -36498,8 +36501,8 @@
       <c r="Z43" s="8"/>
       <c r="AMJ43" s="5"/>
     </row>
-    <row r="44" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="233" t="s">
+    <row r="44" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="239" t="s">
         <v>72</v>
       </c>
       <c r="B44" s="111"/>
@@ -36511,8 +36514,8 @@
       <c r="H44" s="112"/>
       <c r="AMJ44" s="5"/>
     </row>
-    <row r="45" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="234"/>
+    <row r="45" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="240"/>
       <c r="B45" s="113" t="s">
         <v>73</v>
       </c>
@@ -36529,8 +36532,8 @@
       </c>
       <c r="H45" s="115"/>
     </row>
-    <row r="46" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="234"/>
+    <row r="46" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="240"/>
       <c r="B46" s="113" t="s">
         <v>76</v>
       </c>
@@ -36547,8 +36550,8 @@
       </c>
       <c r="H46" s="115"/>
     </row>
-    <row r="47" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="235"/>
+    <row r="47" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="241"/>
       <c r="B47" s="116" t="s">
         <v>79</v>
       </c>
@@ -36565,8 +36568,8 @@
       </c>
       <c r="H47" s="118"/>
     </row>
-    <row r="48" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="236" t="s">
+    <row r="48" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="242" t="s">
         <v>243</v>
       </c>
       <c r="B48" s="121"/>
@@ -36596,7 +36599,7 @@
       <c r="Z48" s="7"/>
       <c r="AMJ48" s="5"/>
     </row>
-    <row r="49" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="237"/>
       <c r="B49" s="105" t="s">
         <v>244</v>
@@ -36614,7 +36617,7 @@
       </c>
       <c r="H49" s="107"/>
     </row>
-    <row r="50" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="237"/>
       <c r="B50" s="105" t="s">
         <v>246</v>
@@ -36632,7 +36635,7 @@
       </c>
       <c r="H50" s="107"/>
     </row>
-    <row r="51" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="237"/>
       <c r="B51" s="105" t="s">
         <v>46</v>
@@ -36650,7 +36653,7 @@
       </c>
       <c r="H51" s="107"/>
     </row>
-    <row r="52" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="237"/>
       <c r="B52" s="105" t="s">
         <v>48</v>
@@ -36668,7 +36671,7 @@
       </c>
       <c r="H52" s="107"/>
     </row>
-    <row r="53" spans="1:1024" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1024" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="237"/>
       <c r="B53" s="105" t="s">
         <v>61</v>
@@ -36706,7 +36709,7 @@
       <c r="AA53" s="8"/>
       <c r="AMJ53" s="5"/>
     </row>
-    <row r="54" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="237"/>
       <c r="B54" s="105" t="s">
         <v>63</v>
@@ -36724,7 +36727,7 @@
       </c>
       <c r="H54" s="107"/>
     </row>
-    <row r="55" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="237"/>
       <c r="B55" s="105" t="s">
         <v>65</v>
@@ -36742,7 +36745,7 @@
       </c>
       <c r="H55" s="107"/>
     </row>
-    <row r="56" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="237"/>
       <c r="B56" s="105" t="s">
         <v>67</v>
@@ -36760,7 +36763,7 @@
       </c>
       <c r="H56" s="107"/>
     </row>
-    <row r="57" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="238"/>
       <c r="B57" s="108" t="s">
         <v>69</v>
@@ -36778,8 +36781,8 @@
       </c>
       <c r="H57" s="110"/>
     </row>
-    <row r="58" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="233" t="s">
+    <row r="58" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="239" t="s">
         <v>491</v>
       </c>
       <c r="B58" s="123"/>
@@ -36791,8 +36794,8 @@
       <c r="H58" s="124"/>
       <c r="AMJ58" s="5"/>
     </row>
-    <row r="59" spans="1:1024" ht="90.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="235"/>
+    <row r="59" spans="1:1024" ht="90.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="241"/>
       <c r="B59" s="116" t="s">
         <v>5</v>
       </c>
@@ -36840,32 +36843,32 @@
       <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="5" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="202" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="202" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="5" customWidth="1"/>
     <col min="9" max="1024" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="1025" max="16384" width="9.140625" hidden="1"/>
+    <col min="1025" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="239" t="s">
+    <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="227" t="s">
         <v>480</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="240"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="228"/>
     </row>
-    <row r="2" spans="1:1024" s="16" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1024" s="16" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
@@ -37907,7 +37910,7 @@
       <c r="AMI2" s="17"/>
       <c r="AMJ2" s="17"/>
     </row>
-    <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="249" t="s">
         <v>492</v>
       </c>
@@ -37932,7 +37935,7 @@
       <c r="T3" s="7"/>
       <c r="AMJ3" s="5"/>
     </row>
-    <row r="4" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="250"/>
       <c r="B4" s="105" t="s">
         <v>206</v>
@@ -37952,7 +37955,7 @@
       </c>
       <c r="H4" s="126"/>
     </row>
-    <row r="5" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="250"/>
       <c r="B5" s="105" t="s">
         <v>303</v>
@@ -37972,7 +37975,7 @@
       </c>
       <c r="H5" s="126"/>
     </row>
-    <row r="6" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="250"/>
       <c r="B6" s="105" t="s">
         <v>499</v>
@@ -37992,7 +37995,7 @@
       </c>
       <c r="H6" s="126"/>
     </row>
-    <row r="7" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="250"/>
       <c r="B7" s="105" t="s">
         <v>306</v>
@@ -38012,7 +38015,7 @@
       </c>
       <c r="H7" s="126"/>
     </row>
-    <row r="8" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="252" t="s">
         <v>5</v>
       </c>
@@ -38025,7 +38028,7 @@
       <c r="H8" s="128"/>
       <c r="AMJ8" s="5"/>
     </row>
-    <row r="9" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="254"/>
       <c r="B9" s="113" t="s">
         <v>309</v>
@@ -39061,7 +39064,7 @@
       <c r="AMI9" s="8"/>
       <c r="AMJ9" s="8"/>
     </row>
-    <row r="10" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="254"/>
       <c r="B10" s="113" t="s">
         <v>500</v>
@@ -40097,7 +40100,7 @@
       <c r="AMI10" s="8"/>
       <c r="AMJ10" s="8"/>
     </row>
-    <row r="11" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="254"/>
       <c r="B11" s="113" t="s">
         <v>314</v>
@@ -41133,7 +41136,7 @@
       <c r="AMI11" s="8"/>
       <c r="AMJ11" s="8"/>
     </row>
-    <row r="12" spans="1:1024" s="10" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1024" s="10" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="254"/>
       <c r="B12" s="113" t="s">
         <v>501</v>
@@ -42169,7 +42172,7 @@
       <c r="AMI12" s="8"/>
       <c r="AMJ12" s="8"/>
     </row>
-    <row r="13" spans="1:1024" s="10" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1024" s="10" customFormat="1" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="254"/>
       <c r="B13" s="113" t="s">
         <v>311</v>
@@ -43205,7 +43208,7 @@
       <c r="AMI13" s="8"/>
       <c r="AMJ13" s="8"/>
     </row>
-    <row r="14" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="249" t="s">
         <v>493</v>
       </c>
@@ -43226,7 +43229,7 @@
       <c r="P14" s="7"/>
       <c r="AMJ14" s="5"/>
     </row>
-    <row r="15" spans="1:1024" s="16" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1024" s="16" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="251"/>
       <c r="B15" s="108" t="s">
         <v>318</v>
@@ -44262,7 +44265,7 @@
       <c r="AMI15" s="17"/>
       <c r="AMJ15" s="17"/>
     </row>
-    <row r="16" spans="1:1024" s="40" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1024" s="40" customFormat="1" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="252" t="s">
         <v>321</v>
       </c>
@@ -45290,7 +45293,7 @@
       <c r="AMI16" s="39"/>
       <c r="AMJ16" s="39"/>
     </row>
-    <row r="17" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="254"/>
       <c r="B17" s="113" t="s">
         <v>94</v>
@@ -45310,7 +45313,7 @@
       </c>
       <c r="H17" s="129"/>
     </row>
-    <row r="18" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="254"/>
       <c r="B18" s="113" t="s">
         <v>98</v>
@@ -45330,7 +45333,7 @@
       </c>
       <c r="H18" s="129"/>
     </row>
-    <row r="19" spans="1:1024" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1024" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="253"/>
       <c r="B19" s="116" t="s">
         <v>102</v>
@@ -45350,7 +45353,7 @@
       </c>
       <c r="H19" s="130"/>
     </row>
-    <row r="20" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="249" t="s">
         <v>326</v>
       </c>
@@ -45370,7 +45373,7 @@
       <c r="O20" s="7"/>
       <c r="AMJ20" s="5"/>
     </row>
-    <row r="21" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="250"/>
       <c r="B21" s="105" t="s">
         <v>106</v>
@@ -45390,7 +45393,7 @@
       </c>
       <c r="H21" s="126"/>
     </row>
-    <row r="22" spans="1:1024" ht="146.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1024" ht="146.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="250"/>
       <c r="B22" s="105" t="s">
         <v>542</v>
@@ -45410,7 +45413,7 @@
       </c>
       <c r="H22" s="126"/>
     </row>
-    <row r="23" spans="1:1024" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1024" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="251"/>
       <c r="B23" s="108" t="s">
         <v>503</v>
@@ -45430,7 +45433,7 @@
       </c>
       <c r="H23" s="127"/>
     </row>
-    <row r="24" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="252" t="s">
         <v>494</v>
       </c>
@@ -45443,7 +45446,7 @@
       <c r="H24" s="133"/>
       <c r="AMJ24" s="5"/>
     </row>
-    <row r="25" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="253"/>
       <c r="B25" s="116" t="s">
         <v>332</v>
@@ -45461,7 +45464,7 @@
       </c>
       <c r="H25" s="130"/>
     </row>
-    <row r="26" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="249" t="s">
         <v>335</v>
       </c>
@@ -45481,7 +45484,7 @@
       <c r="O26" s="7"/>
       <c r="AMJ26" s="5"/>
     </row>
-    <row r="27" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="250"/>
       <c r="B27" s="105" t="s">
         <v>110</v>
@@ -45501,7 +45504,7 @@
       </c>
       <c r="H27" s="126"/>
     </row>
-    <row r="28" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="250"/>
       <c r="B28" s="105" t="s">
         <v>118</v>
@@ -45521,7 +45524,7 @@
       </c>
       <c r="H28" s="126"/>
     </row>
-    <row r="29" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="250"/>
       <c r="B29" s="105" t="s">
         <v>122</v>
@@ -45541,7 +45544,7 @@
       </c>
       <c r="H29" s="126"/>
     </row>
-    <row r="30" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="250"/>
       <c r="B30" s="105" t="s">
         <v>126</v>
@@ -45561,7 +45564,7 @@
       </c>
       <c r="H30" s="126"/>
     </row>
-    <row r="31" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="251"/>
       <c r="B31" s="108" t="s">
         <v>130</v>
@@ -45581,7 +45584,7 @@
       </c>
       <c r="H31" s="127"/>
     </row>
-    <row r="32" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="252" t="s">
         <v>341</v>
       </c>
@@ -45594,7 +45597,7 @@
       <c r="H32" s="128"/>
       <c r="AMJ32" s="5"/>
     </row>
-    <row r="33" spans="1:8" ht="89.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="89.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="254"/>
       <c r="B33" s="113" t="s">
         <v>134</v>
@@ -45614,7 +45617,7 @@
       </c>
       <c r="H33" s="129"/>
     </row>
-    <row r="34" spans="1:8" ht="89.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="89.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="254"/>
       <c r="B34" s="113" t="s">
         <v>544</v>
@@ -45632,7 +45635,7 @@
       </c>
       <c r="H34" s="226"/>
     </row>
-    <row r="35" spans="1:8" ht="44.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="253"/>
       <c r="B35" s="116" t="s">
         <v>342</v>
@@ -45650,8 +45653,8 @@
       </c>
       <c r="H35" s="130"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" insertRows="0" deleteRows="0"/>
   <mergeCells count="9">
@@ -45687,33 +45690,33 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="134" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="134" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" style="134" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="134" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="134" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="206" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="134" customWidth="1"/>
-    <col min="9" max="67" width="10.42578125" style="134" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="134" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="134" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" style="134" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" style="134" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" style="134" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="206" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="134" customWidth="1"/>
+    <col min="9" max="67" width="10.5" style="134" hidden="1" customWidth="1"/>
     <col min="68" max="1024" width="0" style="134" hidden="1" customWidth="1"/>
-    <col min="1025" max="16384" width="9.140625" style="135" hidden="1"/>
+    <col min="1025" max="16384" width="9.1640625" style="135" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="239" t="s">
+    <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="227" t="s">
         <v>481</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="240"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="228"/>
     </row>
-    <row r="2" spans="1:1024" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1024" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -45739,8 +45742,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="236" t="s">
+    <row r="3" spans="1:1024" s="11" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="242" t="s">
         <v>495</v>
       </c>
       <c r="B3" s="18"/>
@@ -45766,7 +45769,7 @@
       <c r="V3" s="12"/>
       <c r="AMJ3" s="134"/>
     </row>
-    <row r="4" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="237"/>
       <c r="B4" s="106" t="s">
         <v>206</v>
@@ -45786,7 +45789,7 @@
       </c>
       <c r="H4" s="137"/>
     </row>
-    <row r="5" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="237"/>
       <c r="B5" s="106" t="s">
         <v>259</v>
@@ -45806,7 +45809,7 @@
       </c>
       <c r="H5" s="137"/>
     </row>
-    <row r="6" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="237"/>
       <c r="B6" s="106" t="s">
         <v>212</v>
@@ -45824,7 +45827,7 @@
       <c r="G6" s="194"/>
       <c r="H6" s="137"/>
     </row>
-    <row r="7" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="237"/>
       <c r="B7" s="106" t="s">
         <v>265</v>
@@ -45844,7 +45847,7 @@
       </c>
       <c r="H7" s="137"/>
     </row>
-    <row r="8" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="237"/>
       <c r="B8" s="106" t="s">
         <v>268</v>
@@ -45864,7 +45867,7 @@
       </c>
       <c r="H8" s="137"/>
     </row>
-    <row r="9" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="237"/>
       <c r="B9" s="106" t="s">
         <v>271</v>
@@ -45884,7 +45887,7 @@
       </c>
       <c r="H9" s="137"/>
     </row>
-    <row r="10" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="237"/>
       <c r="B10" s="106" t="s">
         <v>209</v>
@@ -45902,7 +45905,7 @@
       <c r="G10" s="194"/>
       <c r="H10" s="137"/>
     </row>
-    <row r="11" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="237"/>
       <c r="B11" s="106" t="s">
         <v>278</v>
@@ -45920,7 +45923,7 @@
       <c r="G11" s="194"/>
       <c r="H11" s="137"/>
     </row>
-    <row r="12" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="237"/>
       <c r="B12" s="106" t="s">
         <v>351</v>
@@ -45938,7 +45941,7 @@
       <c r="G12" s="194"/>
       <c r="H12" s="137"/>
     </row>
-    <row r="13" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="237"/>
       <c r="B13" s="106" t="s">
         <v>284</v>
@@ -45956,7 +45959,7 @@
       <c r="G13" s="194"/>
       <c r="H13" s="137"/>
     </row>
-    <row r="14" spans="1:1024" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1024" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="237"/>
       <c r="B14" s="106" t="s">
         <v>355</v>
@@ -45974,7 +45977,7 @@
       <c r="G14" s="194"/>
       <c r="H14" s="137"/>
     </row>
-    <row r="15" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="237"/>
       <c r="B15" s="106" t="s">
         <v>358</v>
@@ -45992,7 +45995,7 @@
       <c r="G15" s="194"/>
       <c r="H15" s="137"/>
     </row>
-    <row r="16" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="237"/>
       <c r="B16" s="106" t="s">
         <v>361</v>
@@ -46010,7 +46013,7 @@
       <c r="G16" s="194"/>
       <c r="H16" s="137"/>
     </row>
-    <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="237"/>
       <c r="B17" s="106" t="s">
         <v>365</v>
@@ -46028,7 +46031,7 @@
       <c r="G17" s="194"/>
       <c r="H17" s="137"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="238"/>
       <c r="B18" s="109" t="s">
         <v>299</v>
@@ -46046,10 +46049,10 @@
       <c r="G18" s="195"/>
       <c r="H18" s="139"/>
     </row>
-    <row r="20" spans="1:8" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="23" hidden="1" x14ac:dyDescent="0.2">
       <c r="F20" s="140"/>
     </row>
-    <row r="28" spans="1:8" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D28" s="141"/>
     </row>
   </sheetData>
@@ -46073,35 +46076,35 @@
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="135" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="135" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" style="135" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="135" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="135" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="208" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="135" customWidth="1"/>
-    <col min="9" max="62" width="10.42578125" style="135" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="135" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="135" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" style="135" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" style="135" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" style="135" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="208" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="135" customWidth="1"/>
+    <col min="9" max="62" width="10.5" style="135" hidden="1" customWidth="1"/>
     <col min="63" max="16384" width="0" style="135" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="239" t="s">
+    <row r="1" spans="1:17" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="227" t="s">
         <v>482</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="240"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="228"/>
     </row>
-    <row r="2" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -46127,7 +46130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="144" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="144" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="255" t="s">
         <v>495</v>
       </c>
@@ -46139,10 +46142,10 @@
       <c r="G3" s="207"/>
       <c r="H3" s="143"/>
     </row>
-    <row r="4" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="256"/>
       <c r="B4" s="106" t="s">
-        <v>206</v>
+        <v>574</v>
       </c>
       <c r="C4" s="106"/>
       <c r="D4" s="105" t="s">
@@ -46168,7 +46171,7 @@
       <c r="P4" s="144"/>
       <c r="Q4" s="144"/>
     </row>
-    <row r="5" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="256"/>
       <c r="B5" s="106" t="s">
         <v>259</v>
@@ -46197,7 +46200,7 @@
       <c r="P5" s="144"/>
       <c r="Q5" s="144"/>
     </row>
-    <row r="6" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="256"/>
       <c r="B6" s="106" t="s">
         <v>212</v>
@@ -46224,7 +46227,7 @@
       <c r="P6" s="144"/>
       <c r="Q6" s="144"/>
     </row>
-    <row r="7" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="256"/>
       <c r="B7" s="106" t="s">
         <v>265</v>
@@ -46253,7 +46256,7 @@
       <c r="P7" s="144"/>
       <c r="Q7" s="144"/>
     </row>
-    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="256"/>
       <c r="B8" s="106" t="s">
         <v>268</v>
@@ -46282,7 +46285,7 @@
       <c r="P8" s="144"/>
       <c r="Q8" s="144"/>
     </row>
-    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="256"/>
       <c r="B9" s="106" t="s">
         <v>271</v>
@@ -46311,7 +46314,7 @@
       <c r="P9" s="144"/>
       <c r="Q9" s="144"/>
     </row>
-    <row r="10" spans="1:17" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="256"/>
       <c r="B10" s="106" t="s">
         <v>209</v>
@@ -46338,7 +46341,7 @@
       <c r="P10" s="144"/>
       <c r="Q10" s="144"/>
     </row>
-    <row r="11" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="256"/>
       <c r="B11" s="106" t="s">
         <v>278</v>
@@ -46365,7 +46368,7 @@
       <c r="P11" s="144"/>
       <c r="Q11" s="144"/>
     </row>
-    <row r="12" spans="1:17" s="151" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" s="151" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="256"/>
       <c r="B12" s="106" t="s">
         <v>281</v>
@@ -46392,7 +46395,7 @@
       <c r="P12" s="144"/>
       <c r="Q12" s="144"/>
     </row>
-    <row r="13" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="256"/>
       <c r="B13" s="106" t="s">
         <v>284</v>
@@ -46419,7 +46422,7 @@
       <c r="P13" s="144"/>
       <c r="Q13" s="144"/>
     </row>
-    <row r="14" spans="1:17" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="256"/>
       <c r="B14" s="106" t="s">
         <v>288</v>
@@ -46446,7 +46449,7 @@
       <c r="P14" s="144"/>
       <c r="Q14" s="144"/>
     </row>
-    <row r="15" spans="1:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="256"/>
       <c r="B15" s="106" t="s">
         <v>568</v>
@@ -46473,7 +46476,7 @@
       <c r="P15" s="144"/>
       <c r="Q15" s="144"/>
     </row>
-    <row r="16" spans="1:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="256"/>
       <c r="B16" s="106"/>
       <c r="C16" s="106" t="s">
@@ -46498,7 +46501,7 @@
       <c r="P16" s="144"/>
       <c r="Q16" s="144"/>
     </row>
-    <row r="17" spans="1:17" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="85" x14ac:dyDescent="0.2">
       <c r="A17" s="256"/>
       <c r="B17" s="106" t="s">
         <v>292</v>
@@ -46525,7 +46528,7 @@
       <c r="P17" s="144"/>
       <c r="Q17" s="144"/>
     </row>
-    <row r="18" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="256"/>
       <c r="B18" s="106" t="s">
         <v>295</v>
@@ -46552,7 +46555,7 @@
       <c r="P18" s="144"/>
       <c r="Q18" s="144"/>
     </row>
-    <row r="19" spans="1:17" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="257"/>
       <c r="B19" s="109" t="s">
         <v>299</v>
@@ -46603,33 +46606,33 @@
       <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="167" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="167" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" style="168" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="168" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="168" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="212" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="135" customWidth="1"/>
-    <col min="9" max="1023" width="10.42578125" style="135" hidden="1" customWidth="1"/>
-    <col min="1024" max="1024" width="9.140625" style="135" hidden="1" customWidth="1"/>
-    <col min="1025" max="16384" width="10.42578125" style="135" hidden="1"/>
+    <col min="1" max="1" width="30.6640625" style="167" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="167" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" style="168" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" style="168" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" style="168" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="212" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="135" customWidth="1"/>
+    <col min="9" max="1023" width="10.5" style="135" hidden="1" customWidth="1"/>
+    <col min="1024" max="1024" width="9.1640625" style="135" hidden="1" customWidth="1"/>
+    <col min="1025" max="16384" width="10.5" style="135" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="239" t="s">
+    <row r="1" spans="1:20" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="227" t="s">
         <v>483</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="240"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="228"/>
     </row>
-    <row r="2" spans="1:20" s="152" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="152" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
@@ -46655,8 +46658,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="156" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="236" t="s">
+    <row r="3" spans="1:20" s="156" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="242" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="153"/>
@@ -46679,7 +46682,7 @@
       <c r="S3" s="155"/>
       <c r="T3" s="155"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="237"/>
       <c r="B4" s="157" t="s">
         <v>8</v>
@@ -46697,7 +46700,7 @@
       </c>
       <c r="H4" s="158"/>
     </row>
-    <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="237"/>
       <c r="B5" s="157" t="s">
         <v>13</v>
@@ -46715,7 +46718,7 @@
       </c>
       <c r="H5" s="158"/>
     </row>
-    <row r="6" spans="1:20" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="237"/>
       <c r="B6" s="157" t="s">
         <v>16</v>
@@ -46733,7 +46736,7 @@
       </c>
       <c r="H6" s="158"/>
     </row>
-    <row r="7" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="238"/>
       <c r="B7" s="159" t="s">
         <v>19</v>
@@ -46751,8 +46754,8 @@
       </c>
       <c r="H7" s="160"/>
     </row>
-    <row r="8" spans="1:20" s="155" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="233" t="s">
+    <row r="8" spans="1:20" s="155" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="239" t="s">
         <v>292</v>
       </c>
       <c r="B8" s="161"/>
@@ -46763,8 +46766,8 @@
       <c r="G8" s="210"/>
       <c r="H8" s="162"/>
     </row>
-    <row r="9" spans="1:20" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="234"/>
+    <row r="9" spans="1:20" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="240"/>
       <c r="B9" s="163" t="s">
         <v>30</v>
       </c>
@@ -46781,8 +46784,8 @@
       </c>
       <c r="H9" s="164"/>
     </row>
-    <row r="10" spans="1:20" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="234"/>
+    <row r="10" spans="1:20" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="240"/>
       <c r="B10" s="163" t="s">
         <v>374</v>
       </c>
@@ -46797,8 +46800,8 @@
       <c r="G10" s="183"/>
       <c r="H10" s="164"/>
     </row>
-    <row r="11" spans="1:20" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="234"/>
+    <row r="11" spans="1:20" ht="40.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="240"/>
       <c r="B11" s="163"/>
       <c r="C11" s="163" t="s">
         <v>376</v>
@@ -46813,8 +46816,8 @@
       <c r="G11" s="183"/>
       <c r="H11" s="164"/>
     </row>
-    <row r="12" spans="1:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="234"/>
+    <row r="12" spans="1:20" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="240"/>
       <c r="B12" s="163"/>
       <c r="C12" s="163" t="s">
         <v>377</v>
@@ -46829,8 +46832,8 @@
       <c r="G12" s="183"/>
       <c r="H12" s="164"/>
     </row>
-    <row r="13" spans="1:20" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="234"/>
+    <row r="13" spans="1:20" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="240"/>
       <c r="B13" s="163"/>
       <c r="C13" s="163" t="s">
         <v>378</v>
@@ -46845,8 +46848,8 @@
       <c r="G13" s="183"/>
       <c r="H13" s="164"/>
     </row>
-    <row r="14" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="234"/>
+    <row r="14" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="240"/>
       <c r="B14" s="163"/>
       <c r="C14" s="163" t="s">
         <v>379</v>
@@ -46861,8 +46864,8 @@
       <c r="G14" s="183"/>
       <c r="H14" s="164"/>
     </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="234"/>
+    <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="240"/>
       <c r="B15" s="163"/>
       <c r="C15" s="163" t="s">
         <v>381</v>
@@ -46877,8 +46880,8 @@
       <c r="G15" s="183"/>
       <c r="H15" s="164"/>
     </row>
-    <row r="16" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="234"/>
+    <row r="16" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="240"/>
       <c r="B16" s="163"/>
       <c r="C16" s="163" t="s">
         <v>565</v>
@@ -46895,8 +46898,8 @@
       <c r="G16" s="183"/>
       <c r="H16" s="164"/>
     </row>
-    <row r="17" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="234"/>
+    <row r="17" spans="1:8" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="240"/>
       <c r="B17" s="163" t="s">
         <v>383</v>
       </c>
@@ -46911,8 +46914,8 @@
       <c r="G17" s="183"/>
       <c r="H17" s="164"/>
     </row>
-    <row r="18" spans="1:8" ht="18.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="235"/>
+    <row r="18" spans="1:8" ht="18.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="241"/>
       <c r="B18" s="165"/>
       <c r="C18" s="165" t="s">
         <v>381</v>
@@ -46955,32 +46958,32 @@
       <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="21" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="21" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="21" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="21" customWidth="1"/>
     <col min="9" max="1024" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="1025" max="16384" width="9.140625" style="22" hidden="1"/>
+    <col min="1025" max="16384" width="9.1640625" style="22" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="239" t="s">
+    <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="227" t="s">
         <v>484</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="240"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="228"/>
     </row>
-    <row r="2" spans="1:1024" s="42" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1024" s="42" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
@@ -48022,8 +48025,8 @@
       <c r="AMI2" s="41"/>
       <c r="AMJ2" s="41"/>
     </row>
-    <row r="3" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="236" t="s">
+    <row r="3" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="242" t="s">
         <v>385</v>
       </c>
       <c r="B3" s="169"/>
@@ -48034,7 +48037,7 @@
       <c r="G3" s="169"/>
       <c r="H3" s="170"/>
     </row>
-    <row r="4" spans="1:1024" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1024" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="237"/>
       <c r="B4" s="47" t="s">
         <v>206</v>
@@ -49066,7 +49069,7 @@
       <c r="AMI4" s="23"/>
       <c r="AMJ4" s="23"/>
     </row>
-    <row r="5" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="237"/>
       <c r="B5" s="47" t="s">
         <v>259</v>
@@ -50098,7 +50101,7 @@
       <c r="AMI5" s="23"/>
       <c r="AMJ5" s="23"/>
     </row>
-    <row r="6" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="237"/>
       <c r="B6" s="47" t="s">
         <v>212</v>
@@ -51130,7 +51133,7 @@
       <c r="AMI6" s="23"/>
       <c r="AMJ6" s="23"/>
     </row>
-    <row r="7" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="237"/>
       <c r="B7" s="47" t="s">
         <v>388</v>
@@ -52162,7 +52165,7 @@
       <c r="AMI7" s="23"/>
       <c r="AMJ7" s="23"/>
     </row>
-    <row r="8" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="237"/>
       <c r="B8" s="47" t="s">
         <v>390</v>
@@ -53194,7 +53197,7 @@
       <c r="AMI8" s="23"/>
       <c r="AMJ8" s="23"/>
     </row>
-    <row r="9" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="237"/>
       <c r="B9" s="47" t="s">
         <v>392</v>
@@ -54226,7 +54229,7 @@
       <c r="AMI9" s="23"/>
       <c r="AMJ9" s="23"/>
     </row>
-    <row r="10" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="237"/>
       <c r="B10" s="47" t="s">
         <v>394</v>
@@ -55258,7 +55261,7 @@
       <c r="AMI10" s="23"/>
       <c r="AMJ10" s="23"/>
     </row>
-    <row r="11" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="237"/>
       <c r="B11" s="47" t="s">
         <v>396</v>
@@ -56290,7 +56293,7 @@
       <c r="AMI11" s="23"/>
       <c r="AMJ11" s="23"/>
     </row>
-    <row r="12" spans="1:1024" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1024" s="26" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="238"/>
       <c r="B12" s="51" t="s">
         <v>398</v>
@@ -57322,8 +57325,8 @@
       <c r="AMI12" s="25"/>
       <c r="AMJ12" s="25"/>
     </row>
-    <row r="13" spans="1:1024" s="20" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="233" t="s">
+    <row r="13" spans="1:1024" s="20" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="239" t="s">
         <v>400</v>
       </c>
       <c r="B13" s="172"/>
@@ -57335,8 +57338,8 @@
       <c r="H13" s="173"/>
       <c r="AMJ13" s="21"/>
     </row>
-    <row r="14" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="234"/>
+    <row r="14" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="240"/>
       <c r="B14" s="69" t="s">
         <v>206</v>
       </c>
@@ -57351,8 +57354,8 @@
       <c r="G14" s="69"/>
       <c r="H14" s="174"/>
     </row>
-    <row r="15" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="234"/>
+    <row r="15" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="240"/>
       <c r="B15" s="69" t="s">
         <v>259</v>
       </c>
@@ -57367,8 +57370,8 @@
       <c r="G15" s="69"/>
       <c r="H15" s="174"/>
     </row>
-    <row r="16" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="234"/>
+    <row r="16" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="240"/>
       <c r="B16" s="69" t="s">
         <v>212</v>
       </c>
@@ -57383,8 +57386,8 @@
       <c r="G16" s="69"/>
       <c r="H16" s="174"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="234"/>
+    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="240"/>
       <c r="B17" s="69" t="s">
         <v>265</v>
       </c>
@@ -57399,8 +57402,8 @@
       <c r="G17" s="69"/>
       <c r="H17" s="174"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="234"/>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="240"/>
       <c r="B18" s="69" t="s">
         <v>209</v>
       </c>
@@ -57415,8 +57418,8 @@
       <c r="G18" s="69"/>
       <c r="H18" s="174"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="234"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="240"/>
       <c r="B19" s="69" t="s">
         <v>5</v>
       </c>
@@ -57431,8 +57434,8 @@
       <c r="G19" s="69"/>
       <c r="H19" s="174"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="234"/>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="240"/>
       <c r="B20" s="69" t="s">
         <v>406</v>
       </c>
@@ -57447,8 +57450,8 @@
       <c r="G20" s="69"/>
       <c r="H20" s="174"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="234"/>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="240"/>
       <c r="B21" s="69" t="s">
         <v>316</v>
       </c>
@@ -57463,8 +57466,8 @@
       <c r="G21" s="69"/>
       <c r="H21" s="174"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="234"/>
+    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="240"/>
       <c r="B22" s="69" t="s">
         <v>409</v>
       </c>
@@ -57479,8 +57482,8 @@
       <c r="G22" s="69"/>
       <c r="H22" s="174"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="234"/>
+    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="240"/>
       <c r="B23" s="69" t="s">
         <v>411</v>
       </c>
@@ -57495,8 +57498,8 @@
       <c r="G23" s="69"/>
       <c r="H23" s="174"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="235"/>
+    <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="241"/>
       <c r="B24" s="73" t="s">
         <v>413</v>
       </c>
@@ -57511,8 +57514,8 @@
       <c r="G24" s="73"/>
       <c r="H24" s="175"/>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="236" t="s">
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="242" t="s">
         <v>351</v>
       </c>
       <c r="B25" s="176"/>
@@ -57523,7 +57526,7 @@
       <c r="G25" s="176"/>
       <c r="H25" s="177"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="237"/>
       <c r="B26" s="47" t="s">
         <v>206</v>
@@ -57539,7 +57542,7 @@
       <c r="G26" s="47"/>
       <c r="H26" s="171"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="237"/>
       <c r="B27" s="47" t="s">
         <v>259</v>
@@ -57555,7 +57558,7 @@
       <c r="G27" s="47"/>
       <c r="H27" s="171"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="237"/>
       <c r="B28" s="47" t="s">
         <v>212</v>
@@ -57571,7 +57574,7 @@
       <c r="G28" s="47"/>
       <c r="H28" s="171"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="237"/>
       <c r="B29" s="47" t="s">
         <v>265</v>
@@ -57587,7 +57590,7 @@
       <c r="G29" s="47"/>
       <c r="H29" s="171"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="237"/>
       <c r="B30" s="47" t="s">
         <v>418</v>
@@ -57603,7 +57606,7 @@
       <c r="G30" s="47"/>
       <c r="H30" s="171"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="237"/>
       <c r="B31" s="47" t="s">
         <v>209</v>
@@ -57619,7 +57622,7 @@
       <c r="G31" s="47"/>
       <c r="H31" s="171"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="237"/>
       <c r="B32" s="47" t="s">
         <v>396</v>
@@ -57635,7 +57638,7 @@
       <c r="G32" s="47"/>
       <c r="H32" s="171"/>
     </row>
-    <row r="33" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="237"/>
       <c r="B33" s="47" t="s">
         <v>422</v>
@@ -57651,7 +57654,7 @@
       <c r="G33" s="47"/>
       <c r="H33" s="171"/>
     </row>
-    <row r="34" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="237"/>
       <c r="B34" s="47" t="s">
         <v>5</v>
@@ -57667,7 +57670,7 @@
       <c r="G34" s="47"/>
       <c r="H34" s="171"/>
     </row>
-    <row r="35" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="237"/>
       <c r="B35" s="47" t="s">
         <v>425</v>
@@ -57683,7 +57686,7 @@
       <c r="G35" s="47"/>
       <c r="H35" s="171"/>
     </row>
-    <row r="36" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="238"/>
       <c r="B36" s="51" t="s">
         <v>427</v>
@@ -57699,8 +57702,8 @@
       <c r="G36" s="51"/>
       <c r="H36" s="178"/>
     </row>
-    <row r="37" spans="1:1024" s="20" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="233" t="s">
+    <row r="37" spans="1:1024" s="20" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="239" t="s">
         <v>281</v>
       </c>
       <c r="B37" s="172"/>
@@ -57712,8 +57715,8 @@
       <c r="H37" s="173"/>
       <c r="AMJ37" s="21"/>
     </row>
-    <row r="38" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="234"/>
+    <row r="38" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="240"/>
       <c r="B38" s="69" t="s">
         <v>206</v>
       </c>
@@ -57728,8 +57731,8 @@
       <c r="G38" s="69"/>
       <c r="H38" s="174"/>
     </row>
-    <row r="39" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="234"/>
+    <row r="39" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="240"/>
       <c r="B39" s="69" t="s">
         <v>259</v>
       </c>
@@ -57744,8 +57747,8 @@
       <c r="G39" s="69"/>
       <c r="H39" s="174"/>
     </row>
-    <row r="40" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="234"/>
+    <row r="40" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="240"/>
       <c r="B40" s="69" t="s">
         <v>212</v>
       </c>
@@ -57760,8 +57763,8 @@
       <c r="G40" s="69"/>
       <c r="H40" s="174"/>
     </row>
-    <row r="41" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="234"/>
+    <row r="41" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="240"/>
       <c r="B41" s="69" t="s">
         <v>265</v>
       </c>
@@ -57776,8 +57779,8 @@
       <c r="G41" s="69"/>
       <c r="H41" s="174"/>
     </row>
-    <row r="42" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="234"/>
+    <row r="42" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="240"/>
       <c r="B42" s="69" t="s">
         <v>432</v>
       </c>
@@ -57792,8 +57795,8 @@
       <c r="G42" s="69"/>
       <c r="H42" s="174"/>
     </row>
-    <row r="43" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="234"/>
+    <row r="43" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="240"/>
       <c r="B43" s="69" t="s">
         <v>351</v>
       </c>
@@ -57808,8 +57811,8 @@
       <c r="G43" s="69"/>
       <c r="H43" s="174"/>
     </row>
-    <row r="44" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="234"/>
+    <row r="44" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="240"/>
       <c r="B44" s="69" t="s">
         <v>209</v>
       </c>
@@ -57824,8 +57827,8 @@
       <c r="G44" s="69"/>
       <c r="H44" s="174"/>
     </row>
-    <row r="45" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="234"/>
+    <row r="45" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="240"/>
       <c r="B45" s="69" t="s">
         <v>396</v>
       </c>
@@ -57840,8 +57843,8 @@
       <c r="G45" s="69"/>
       <c r="H45" s="174"/>
     </row>
-    <row r="46" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="234"/>
+    <row r="46" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="240"/>
       <c r="B46" s="69" t="s">
         <v>437</v>
       </c>
@@ -57856,8 +57859,8 @@
       <c r="G46" s="69"/>
       <c r="H46" s="174"/>
     </row>
-    <row r="47" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="234"/>
+    <row r="47" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="240"/>
       <c r="B47" s="69" t="s">
         <v>5</v>
       </c>
@@ -57872,8 +57875,8 @@
       <c r="G47" s="69"/>
       <c r="H47" s="174"/>
     </row>
-    <row r="48" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="235"/>
+    <row r="48" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="241"/>
       <c r="B48" s="73" t="s">
         <v>409</v>
       </c>
